--- a/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
+++ b/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.einig\IdeaProjects\Praktikumsplaner\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.nischwitz\Documents\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB17FC2B-0A4C-4367-8AA7-7333CA9D0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC1AF6-F19A-4117-9497-D36AFE533380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-4470" windowWidth="28800" windowHeight="15375" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -103,6 +102,9 @@
   </si>
   <si>
     <t>21/22</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -504,22 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40CCF9E-2FB7-4310-91B7-7540413BFD8B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -553,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,7 +568,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,7 +581,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -594,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -624,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,7 +641,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -650,7 +652,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -667,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,33 +686,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12 C21:C1048576" xr:uid="{632E850D-EAD0-4075-AEC5-93E397686794}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C1048576 C2:C16" xr:uid="{632E850D-EAD0-4075-AEC5-93E397686794}">
       <formula1>"BWI,BSC,VI,FISI"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{E3003509-3CA1-4A0E-A56E-2E5DE0CE4E34}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14" xr:uid="{96600D44-1EBD-41DB-90B6-C9998E25E0CB}">
       <formula1>2010</formula1>
       <formula2>2500</formula2>
     </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{6F1E545A-E8E0-4166-9600-B0D3E5356C95}">
+      <formula1>"BWI,BSC,VI,FISI"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
+++ b/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.einig\IdeaProjects\Praktikumsplaner\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.nischwitz\Documents\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB17FC2B-0A4C-4367-8AA7-7333CA9D0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B9D748-EAE5-4B16-B1BB-5D0BAAD68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-4470" windowWidth="28800" windowHeight="15375" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,19 +506,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -553,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -566,7 +565,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -579,7 +578,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -594,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -609,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -624,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,7 +638,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -650,7 +649,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -667,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>

--- a/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
+++ b/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.nischwitz\Documents\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.einig\IdeaProjects\Praktikumsplaner\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B9D748-EAE5-4B16-B1BB-5D0BAAD68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB17FC2B-0A4C-4367-8AA7-7333CA9D0760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
+    <workbookView xWindow="29760" yWindow="-4470" windowWidth="28800" windowHeight="15375" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -506,19 +507,19 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -552,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -565,7 +566,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -578,7 +579,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -593,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -608,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -638,7 +639,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -649,7 +650,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -683,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>

--- a/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
+++ b/praktikumsplaner-backend/src/test/resources/de/muenchen/oss/praktikumsplaner/service/ExcelNwkInvalidData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.nischwitz\Documents\Praktikumsplaner\praktikumsplaner-backend\src\test\resources\de\muenchen\oss\praktikumsplaner\service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B9D748-EAE5-4B16-B1BB-5D0BAAD68A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C0117C-8E87-425C-833F-5CA40C0CA3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E95CBEE5-BDCF-48D0-B574-A8FA4EA1B085}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>21/22</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -182,13 +185,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -503,198 +506,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40CCF9E-2FB7-4310-91B7-7540413BFD8B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2222222</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
